--- a/Data Files/Constants.xlsx
+++ b/Data Files/Constants.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BD6269-534C-4120-BC7F-424A215C65E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D88622-C987-43AE-B22F-1527DE1F56DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="2304" windowWidth="11952" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>productName</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Happy Ninja</t>
   </si>
   <si>
-    <t>Ninja Silhouette</t>
-  </si>
-  <si>
     <t>Patient Ninja</t>
   </si>
   <si>
@@ -43,7 +40,19 @@
     <t>Ship Your Idea</t>
   </si>
   <si>
-    <t>Woo Album #1</t>
+    <t>Woo Album 1</t>
+  </si>
+  <si>
+    <t>Woo Album 2</t>
+  </si>
+  <si>
+    <t>Woo Album 3</t>
+  </si>
+  <si>
+    <t>Woo Album 4</t>
+  </si>
+  <si>
+    <t>Woo Logo</t>
   </si>
 </sst>
 </file>
@@ -361,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,27 +398,42 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Constants.xlsx
+++ b/Data Files/Constants.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D88622-C987-43AE-B22F-1527DE1F56DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CEBC31-5AC2-4FF0-9847-24B1D28587AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="2304" windowWidth="11952" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchProduct" sheetId="1" r:id="rId1"/>
+    <sheet name="Checkout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>productName</t>
   </si>
@@ -53,6 +54,120 @@
   </si>
   <si>
     <t>Woo Logo</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>optionText</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>BKU</t>
+  </si>
+  <si>
+    <t>TDTU</t>
+  </si>
+  <si>
+    <t>KOI</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>290 Nam Ky Khoi Nghia</t>
+  </si>
+  <si>
+    <t>19 Nguyen Huu Tho</t>
+  </si>
+  <si>
+    <t>100 Nguyen Cong Tru</t>
+  </si>
+  <si>
+    <t>200 Huynh Tan Phat</t>
+  </si>
+  <si>
+    <t>300 Nguyen Tat Thanh</t>
+  </si>
+  <si>
+    <t>121 Nguyen Van Linh</t>
+  </si>
+  <si>
+    <t>128 Cong Hoa</t>
+  </si>
+  <si>
+    <t>89 Truong Son</t>
+  </si>
+  <si>
+    <t>280 Tan Vien</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>28 Tran Quang Khai</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0820200202</t>
+  </si>
+  <si>
+    <t>0359912894</t>
+  </si>
+  <si>
+    <t>0263839208</t>
+  </si>
+  <si>
+    <t>0288229292</t>
+  </si>
+  <si>
+    <t>0883838389</t>
+  </si>
+  <si>
+    <t>0393849338</t>
+  </si>
+  <si>
+    <t>0888839968</t>
+  </si>
+  <si>
+    <t>0984489494</t>
+  </si>
+  <si>
+    <t>0388337378</t>
   </si>
 </sst>
 </file>
@@ -88,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +556,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD94A-16BC-404A-A14F-38F2AB96A29D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="21" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>70000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>70000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>70000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>70000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>70000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>70000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>70000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>70000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>70000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>70000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/Constants.xlsx
+++ b/Data Files/Constants.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CEBC31-5AC2-4FF0-9847-24B1D28587AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED658B-664F-4BD9-93E9-AA21C606A638}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="searchProduct" sheetId="1" r:id="rId1"/>
+    <sheet name="listProduct" sheetId="1" r:id="rId1"/>
     <sheet name="Checkout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -59,9 +59,6 @@
     <t>companyName</t>
   </si>
   <si>
-    <t>optionText</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>0388337378</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD94A-16BC-404A-A14F-38F2AB96A29D}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,219 +576,219 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>70000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>70000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>70000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>70000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>70000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>70000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>70000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>70000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>70000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>70000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Constants.xlsx
+++ b/Data Files/Constants.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED658B-664F-4BD9-93E9-AA21C606A638}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C3B34-33FD-4F6A-8071-00299C437356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listProduct" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>productName</t>
   </si>
@@ -32,142 +32,70 @@
     <t>Happy Ninja</t>
   </si>
   <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>BKU</t>
+  </si>
+  <si>
+    <t>TDTU</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>290 Nam Ky Khoi Nghia</t>
+  </si>
+  <si>
+    <t>19 Nguyen Huu Tho</t>
+  </si>
+  <si>
+    <t>100 Nguyen Cong Tru</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0820200202</t>
+  </si>
+  <si>
+    <t>0288229292</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Woo Logo</t>
+  </si>
+  <si>
     <t>Patient Ninja</t>
   </si>
   <si>
-    <t>Premium Quality</t>
-  </si>
-  <si>
-    <t>Ship Your Idea</t>
-  </si>
-  <si>
-    <t>Woo Album 1</t>
-  </si>
-  <si>
-    <t>Woo Album 2</t>
-  </si>
-  <si>
-    <t>Woo Album 3</t>
-  </si>
-  <si>
-    <t>Woo Album 4</t>
-  </si>
-  <si>
-    <t>Woo Logo</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>KMS</t>
-  </si>
-  <si>
-    <t>BKU</t>
-  </si>
-  <si>
-    <t>TDTU</t>
-  </si>
-  <si>
-    <t>KOI</t>
-  </si>
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>290 Nam Ky Khoi Nghia</t>
-  </si>
-  <si>
-    <t>19 Nguyen Huu Tho</t>
-  </si>
-  <si>
-    <t>100 Nguyen Cong Tru</t>
-  </si>
-  <si>
-    <t>200 Huynh Tan Phat</t>
-  </si>
-  <si>
-    <t>300 Nguyen Tat Thanh</t>
-  </si>
-  <si>
-    <t>121 Nguyen Van Linh</t>
-  </si>
-  <si>
-    <t>128 Cong Hoa</t>
-  </si>
-  <si>
-    <t>89 Truong Son</t>
-  </si>
-  <si>
-    <t>280 Tan Vien</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>QN</t>
-  </si>
-  <si>
-    <t>28 Tran Quang Khai</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>0820200202</t>
-  </si>
-  <si>
-    <t>0359912894</t>
-  </si>
-  <si>
-    <t>0263839208</t>
-  </si>
-  <si>
-    <t>0288229292</t>
-  </si>
-  <si>
-    <t>0883838389</t>
-  </si>
-  <si>
-    <t>0393849338</t>
-  </si>
-  <si>
-    <t>0888839968</t>
-  </si>
-  <si>
-    <t>0984489494</t>
-  </si>
-  <si>
-    <t>0388337378</t>
-  </si>
-  <si>
-    <t>country</t>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>628 Nguyen Hai Phong</t>
+  </si>
+  <si>
+    <t>0289928289</t>
   </si>
 </sst>
 </file>
@@ -486,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,42 +442,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -560,10 +458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD94A-16BC-404A-A14F-38F2AB96A29D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,222 +471,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>70000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>70000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>70000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>70000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>70000</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>70000</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>70000</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>70000</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>70000</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>70000</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Constants.xlsx
+++ b/Data Files/Constants.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C3B34-33FD-4F6A-8071-00299C437356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7601FD-6E89-466B-BDF6-A4375D9E1C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>productName</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>0289928289</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>katalon</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD94A-16BC-404A-A14F-38F2AB96A29D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,103 +481,133 @@
     <col min="1" max="21" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>70000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>70000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>70000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>70000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
